--- a/medicine/Psychotrope/Mousse_(cuisine)/Mousse_(cuisine).xlsx
+++ b/medicine/Psychotrope/Mousse_(cuisine)/Mousse_(cuisine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cuisine, la mousse est le résultat d'une réaction chimique et physique qui incorpore des bulles d'air dans une matière liquide ou solide. La mousse est donc présente dans les boissons (exemple : bière) et les plats (exemple : mousse au chocolat)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cuisine, la mousse est le résultat d'une réaction chimique et physique qui incorpore des bulles d'air dans une matière liquide ou solide. La mousse est donc présente dans les boissons (exemple : bière) et les plats (exemple : mousse au chocolat). 
 Ainsi, la mousse est : 
 l'amas de bulles formé à la surface d'un liquide sous pression, ou qui est le siège d'une fermentation, exemple : vin effervescent, bière ;
-un mélange d'eau, d'air et de protéines dans les boissons à base de lait, comme le cappuccino et les lattés[2] ;
-un entremets ou un dessert à base de blanc d'œuf ou de crème fouettée, exemple : mousse au chocolat[3], mousse Jawzia ;
+un mélange d'eau, d'air et de protéines dans les boissons à base de lait, comme le cappuccino et les lattés ;
+un entremets ou un dessert à base de blanc d'œuf ou de crème fouettée, exemple : mousse au chocolat, mousse Jawzia ;
 les préparations obtenues à l'aide d'un siphon, certaines de ces préparations sont aussi appelées espuma ;
 un pâté, ou toute autre préparation de consistance légère et mousseuse, exemple : mousse de foie de canard au porto, mousse de poisson.
 En cuisine, la mousse n'est pas de l'écume.
